--- a/WordLIst.xlsx
+++ b/WordLIst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhanjal\Documents\GitHub\IELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2E99492-FDDE-4D81-970E-117120BF1FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401FF9AD-6602-461D-9D6F-3524AE8FB3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFC8F92E-AAE8-4E1E-BF49-ADFB529E293E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{FFC8F92E-AAE8-4E1E-BF49-ADFB529E293E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Cherry-picked</t>
   </si>
@@ -64,6 +64,189 @@
   </si>
   <si>
     <t>hourlong</t>
+  </si>
+  <si>
+    <t>Nurture</t>
+  </si>
+  <si>
+    <t>Ridiculous</t>
+  </si>
+  <si>
+    <t>hijacked</t>
+  </si>
+  <si>
+    <t>fumes</t>
+  </si>
+  <si>
+    <t>moviegoers</t>
+  </si>
+  <si>
+    <t>Brimming</t>
+  </si>
+  <si>
+    <t>ludicrous</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>sensation</t>
+  </si>
+  <si>
+    <t>trotted out</t>
+  </si>
+  <si>
+    <t>doozies</t>
+  </si>
+  <si>
+    <t>droves</t>
+  </si>
+  <si>
+    <t>plunged</t>
+  </si>
+  <si>
+    <t>factroid</t>
+  </si>
+  <si>
+    <t>congregant</t>
+  </si>
+  <si>
+    <t>endure</t>
+  </si>
+  <si>
+    <t>pursuade</t>
+  </si>
+  <si>
+    <t>realm</t>
+  </si>
+  <si>
+    <t>virtuoso</t>
+  </si>
+  <si>
+    <t>diction</t>
+  </si>
+  <si>
+    <t>heretical</t>
+  </si>
+  <si>
+    <t>chaplain</t>
+  </si>
+  <si>
+    <t>absurd</t>
+  </si>
+  <si>
+    <t>annals</t>
+  </si>
+  <si>
+    <t>nugget</t>
+  </si>
+  <si>
+    <t>wisdom</t>
+  </si>
+  <si>
+    <t>profound</t>
+  </si>
+  <si>
+    <t>trivial</t>
+  </si>
+  <si>
+    <t>prophecy</t>
+  </si>
+  <si>
+    <t>premise</t>
+  </si>
+  <si>
+    <t>practitioner</t>
+  </si>
+  <si>
+    <t>abruptly</t>
+  </si>
+  <si>
+    <t>plummet</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>veer</t>
+  </si>
+  <si>
+    <t>turf</t>
+  </si>
+  <si>
+    <t>booby-trapped</t>
+  </si>
+  <si>
+    <t>trick-or-treat</t>
+  </si>
+  <si>
+    <t>sully</t>
+  </si>
+  <si>
+    <t>inexplicably</t>
+  </si>
+  <si>
+    <t>stash</t>
+  </si>
+  <si>
+    <t>twin (link)</t>
+  </si>
+  <si>
+    <t>tapped</t>
+  </si>
+  <si>
+    <t>disgust</t>
+  </si>
+  <si>
+    <t>overstate</t>
+  </si>
+  <si>
+    <t>scrawny</t>
+  </si>
+  <si>
+    <t>exclusion</t>
+  </si>
+  <si>
+    <t>awry</t>
+  </si>
+  <si>
+    <t>skepticism</t>
+  </si>
+  <si>
+    <t>instinctively</t>
+  </si>
+  <si>
+    <t>innumerable</t>
+  </si>
+  <si>
+    <t>sluggishness</t>
+  </si>
+  <si>
+    <t>harness</t>
+  </si>
+  <si>
+    <t>instilling</t>
+  </si>
+  <si>
+    <t>prose</t>
+  </si>
+  <si>
+    <t>commonsensical</t>
+  </si>
+  <si>
+    <t>deluged</t>
+  </si>
+  <si>
+    <t>confounds</t>
+  </si>
+  <si>
+    <t>bizarre</t>
+  </si>
+  <si>
+    <t>morse code</t>
+  </si>
+  <si>
+    <t>flabbergast</t>
   </si>
 </sst>
 </file>
@@ -415,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA99AFE1-8D4F-490B-BDDD-EFC4906622F7}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,6 +664,321 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
